--- a/folder/ШАБЛОН.xlsx
+++ b/folder/ШАБЛОН.xlsx
@@ -999,7 +999,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1069,6 +1069,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="20% - Акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1450,7 +1453,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1553,7 +1556,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="105">
       <c r="A12" s="10" t="s">

--- a/folder/ШАБЛОН.xlsx
+++ b/folder/ШАБЛОН.xlsx
@@ -8,16 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Сводный" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="Входящие" sheetId="1" r:id="rId2"/>
-    <sheet name="Дискретные каналы" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="ЕСПП" sheetId="1" r:id="rId2"/>
+    <sheet name="ЭКИВС ГВЦ" sheetId="6" r:id="rId3"/>
+    <sheet name="Дискретные каналы" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc420858258" localSheetId="2">'ЭКИВС ГВЦ'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>Дата</t>
   </si>
@@ -265,6 +269,81 @@
   <si>
     <t>AHT(sec)</t>
   </si>
+  <si>
+    <t>GVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASA (Average Speed of Answer)</t>
+  </si>
+  <si>
+    <t>Среднее время ответа на звонок, сек</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LCR:</t>
+  </si>
+  <si>
+    <t>Доля потерянных вызовов</t>
+  </si>
+  <si>
+    <t>Transefrt</t>
+  </si>
+  <si>
+    <t>Доля переведенных звонков со сплита GVC на сплит ESPP, %</t>
+  </si>
+  <si>
+    <t>Среднее время разговора, сек.</t>
+  </si>
+  <si>
+    <t>Начало периода</t>
+  </si>
+  <si>
+    <t>Конец периода</t>
+  </si>
+  <si>
+    <t>Поступившие</t>
+  </si>
+  <si>
+    <t>Принятые</t>
+  </si>
+  <si>
+    <t>Принятые и обслуженные у ЭКИВС</t>
+  </si>
+  <si>
+    <t>Переведенные на ЕСПП</t>
+  </si>
+  <si>
+    <t>Потерянные</t>
+  </si>
+  <si>
+    <t>Среднее время потерянных звонков</t>
+  </si>
+  <si>
+    <t>Доля потерянных звонков</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Обработанные в IVR(звонки, отключившиеся во время ролика(-ов)), %.</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +354,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,6 +583,14 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="39">
@@ -999,7 +1086,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1061,6 +1148,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1069,9 +1167,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="68">
     <cellStyle name="20% - Акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1450,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,12 +1559,13 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="25" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1479,7 +1575,7 @@
       </c>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:18" ht="39">
+    <row r="2" spans="1:19" ht="39">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -1489,7 +1585,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:18" ht="39">
+    <row r="3" spans="1:19" ht="39">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1499,7 +1595,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="39">
+    <row r="4" spans="1:19" ht="39">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -1509,7 +1605,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="39">
+    <row r="5" spans="1:19" ht="39">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1519,7 +1615,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="51.75">
+    <row r="6" spans="1:19" ht="51.75">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1529,7 +1625,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="39">
+    <row r="7" spans="1:19" ht="39">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1635,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="90">
+    <row r="8" spans="1:19" ht="90">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1549,16 +1645,16 @@
       <c r="C8" s="4"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="26.25">
+    <row r="9" spans="1:19" ht="26.25">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="12" spans="1:18" ht="105">
+      <c r="C9" s="27"/>
+    </row>
+    <row r="12" spans="1:19" ht="105">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1596,25 +1692,28 @@
         <v>16</v>
       </c>
       <c r="M12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="Q12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="R12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="S12" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="31.5">
+    <row r="13" spans="1:19" ht="31.5">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1651,20 +1750,21 @@
       <c r="L13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="10"/>
+      <c r="N13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="1">
@@ -1681,14 +1781,15 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
+      <c r="P14" s="23"/>
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="24"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="1">
@@ -1705,14 +1806,15 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="23"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
+      <c r="P15" s="23"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="24"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="1">
@@ -1729,14 +1831,15 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="23"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
+      <c r="P16" s="23"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="24"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="1">
@@ -1753,14 +1856,15 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="23"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="24"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="1">
@@ -1777,14 +1881,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="23"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="24"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="1">
@@ -1801,14 +1906,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="23"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="24"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="1">
@@ -1825,14 +1931,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="23"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
+      <c r="P20" s="23"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="24"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1">
@@ -1849,14 +1956,15 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="24"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1">
@@ -1873,14 +1981,15 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="23"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
+      <c r="P22" s="23"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="24"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="1">
@@ -1897,14 +2006,15 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
+      <c r="P23" s="23"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="24"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="1">
@@ -1921,14 +2031,15 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
+      <c r="P24" s="23"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="24"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1">
@@ -1945,14 +2056,15 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="23"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="24"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="1">
@@ -1969,14 +2081,15 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="23"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="24"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="1">
@@ -1993,14 +2106,15 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="23"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
+      <c r="P27" s="23"/>
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="24"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1">
@@ -2017,14 +2131,15 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="23"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
+      <c r="P28" s="23"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="24"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1">
@@ -2041,14 +2156,15 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="23"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
+      <c r="P29" s="23"/>
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="24"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1">
@@ -2065,14 +2181,15 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="23"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="24"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="1">
@@ -2089,14 +2206,15 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="23"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="24"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="1">
@@ -2113,14 +2231,15 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="23"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
-      <c r="P32" s="24"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="24"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="1">
@@ -2137,14 +2256,15 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="23"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
+      <c r="P33" s="23"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="24"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="1">
@@ -2161,14 +2281,15 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="23"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="24"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="1">
@@ -2185,14 +2306,15 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="24"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="1">
@@ -2209,14 +2331,15 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="23"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
-      <c r="P36" s="24"/>
+      <c r="P36" s="23"/>
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="1">
@@ -2233,18 +2356,19 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="23"/>
+      <c r="M37" s="5"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
+      <c r="P37" s="23"/>
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2253,10 +2377,1231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="26" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="26"/>
+    <col min="7" max="7" width="11.28515625" style="26" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="26"/>
+    <col min="13" max="13" width="10" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8">
+        <f>ЕСПП!$C$1</f>
+        <v>42275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="C2" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="26.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <f>SUM($E$14:$E$37)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6">
+        <f>SUM($F$14:$F$37)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="26.25">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="39">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="26.25">
+      <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="42">
+      <c r="A13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="5" t="str">
+        <f>VLOOKUP(WEEKDAY(B14,2),$AC$14:$AD$20,2,FALSE)</f>
+        <v>Понедельник</v>
+      </c>
+      <c r="B14" s="30">
+        <f>B1</f>
+        <v>42275</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="5" t="str">
+        <f t="shared" ref="A15:A37" si="0">VLOOKUP(WEEKDAY(B15,2),$AC$14:$AD$20,2,FALSE)</f>
+        <v>Понедельник</v>
+      </c>
+      <c r="B15" s="30">
+        <f>B14</f>
+        <v>42275</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+      <c r="M15" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="26">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B16" s="30">
+        <f t="shared" ref="B16:B37" si="1">B15</f>
+        <v>42275</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+      <c r="M16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="26">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B17" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29">
+        <v>0</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0</v>
+      </c>
+      <c r="L17" s="29">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="26">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B18" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29">
+        <v>0</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="26">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B19" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="26">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B20" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.29166666666666602</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29">
+        <v>0</v>
+      </c>
+      <c r="K20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29">
+        <v>0</v>
+      </c>
+      <c r="M20" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="26">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B21" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0</v>
+      </c>
+      <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
+      <c r="M21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B22" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="K22" s="29">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B23" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29">
+        <v>71.75</v>
+      </c>
+      <c r="K23" s="29">
+        <v>4.25</v>
+      </c>
+      <c r="L23" s="29">
+        <v>0</v>
+      </c>
+      <c r="M23" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B24" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="29">
+        <v>70</v>
+      </c>
+      <c r="K24" s="29">
+        <v>5</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0</v>
+      </c>
+      <c r="M24" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B25" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29">
+        <v>0</v>
+      </c>
+      <c r="K25" s="29">
+        <v>0</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B26" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29">
+        <v>0</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B27" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="29">
+        <v>0</v>
+      </c>
+      <c r="K27" s="29">
+        <v>0</v>
+      </c>
+      <c r="L27" s="29">
+        <v>0</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B28" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="29">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29">
+        <v>0</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B29" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B30" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="29">
+        <v>0</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B31" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="29">
+        <v>0</v>
+      </c>
+      <c r="K31" s="29">
+        <v>0</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B32" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B33" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="29">
+        <v>0</v>
+      </c>
+      <c r="K33" s="29">
+        <v>0</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B34" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="29">
+        <v>0</v>
+      </c>
+      <c r="K34" s="29">
+        <v>0</v>
+      </c>
+      <c r="L34" s="29">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B35" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0</v>
+      </c>
+      <c r="K35" s="29">
+        <v>0</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0</v>
+      </c>
+      <c r="M35" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B36" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="29">
+        <v>0</v>
+      </c>
+      <c r="L36" s="29">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Понедельник</v>
+      </c>
+      <c r="B37" s="30">
+        <f t="shared" si="1"/>
+        <v>42275</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="29">
+        <v>0</v>
+      </c>
+      <c r="K37" s="29">
+        <v>0</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0</v>
+      </c>
+      <c r="M37" s="23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2269,13 +3614,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.6" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:12" ht="25.5">
@@ -3252,7 +4597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>

--- a/folder/ШАБЛОН.xlsx
+++ b/folder/ШАБЛОН.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t>Дата</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Обработанные в IVR(звонки, отключившиеся во время ролика(-ов)), %.</t>
+  </si>
+  <si>
+    <t>Обработанные в IVR(звонки, отключившиеся во время ролика(-ов)), шт.</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1085,8 +1088,9 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1167,8 +1171,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="69">
     <cellStyle name="20% - Акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Акцент2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Акцент3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1231,6 +1236,7 @@
     <cellStyle name="Плохой" xfId="59" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="60" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="61"/>
+    <cellStyle name="Процентный" xfId="68" builtinId="5"/>
     <cellStyle name="Процентный 2" xfId="62"/>
     <cellStyle name="Процентный 3" xfId="63"/>
     <cellStyle name="Связанная ячейка" xfId="64" builtinId="24" customBuiltin="1"/>
@@ -1548,7 +1554,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1654,6 +1660,16 @@
       </c>
       <c r="C9" s="27"/>
     </row>
+    <row r="10" spans="1:19" ht="64.5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4" t="e">
+        <f>SUM($M$14:$M$37)/SUM($H$14:$H$37)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="12" spans="1:19" ht="105">
       <c r="A12" s="10" t="s">
         <v>1</v>
@@ -1692,7 +1708,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>17</v>
@@ -1781,7 +1797,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
@@ -1806,7 +1822,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
@@ -1831,7 +1847,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
@@ -1856,7 +1872,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
@@ -1881,7 +1897,7 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
@@ -1906,7 +1922,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -1931,7 +1947,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -1956,7 +1972,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
@@ -1981,7 +1997,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
@@ -2006,7 +2022,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
@@ -2031,7 +2047,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
@@ -2056,7 +2072,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
@@ -2081,7 +2097,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
       <c r="P26" s="23"/>
@@ -2106,7 +2122,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="29"/>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" s="23"/>
@@ -2131,7 +2147,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="M28" s="29"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
@@ -2156,7 +2172,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="29"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
@@ -2181,7 +2197,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="M30" s="29"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
@@ -2206,7 +2222,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="M31" s="29"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
@@ -2231,7 +2247,7 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="M32" s="29"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
@@ -2256,7 +2272,7 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
       <c r="P33" s="23"/>
@@ -2281,7 +2297,7 @@
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="M34" s="29"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
@@ -2306,7 +2322,7 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="M35" s="29"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
       <c r="P35" s="23"/>
@@ -2331,7 +2347,7 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="M36" s="29"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
@@ -2356,7 +2372,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="M37" s="29"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
       <c r="P37" s="23"/>
@@ -2379,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2417,7 +2433,7 @@
       </c>
       <c r="C3" s="6">
         <f>SUM($E$14:$E$37)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -2429,7 +2445,7 @@
       </c>
       <c r="C4" s="6">
         <f>SUM($F$14:$F$37)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="26.25">
@@ -2440,7 +2456,8 @@
         <v>66</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <f>IFERROR(SUMIFS($K$14:$K$37,$E$14:$E$37,"&gt;0")/SUM($F$14:$F$37),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -2450,7 +2467,8 @@
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="34">
+        <f>IFERROR((C3-C4)/C3,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2462,6 +2480,7 @@
         <v>70</v>
       </c>
       <c r="C7" s="6">
+        <f>IFERROR(SUM($H$14:$H$37)/SUM($F$14:$F$37),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2473,7 +2492,8 @@
         <v>71</v>
       </c>
       <c r="C8" s="6">
-        <v>75</v>
+        <f t="array" ref="C8">IFERROR(SUM($J$14:$J$37*$F$14:$F$37)/SUM($F$14:$F$37),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="42">
@@ -2532,33 +2552,15 @@
       <c r="D14" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
-        <v>0</v>
-      </c>
-      <c r="K14" s="29">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29">
-        <v>0</v>
-      </c>
-      <c r="M14" s="23">
-        <v>0</v>
-      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="23"/>
       <c r="AC14" s="26">
         <v>1</v>
       </c>
@@ -2581,33 +2583,15 @@
       <c r="D15" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29">
-        <v>0</v>
-      </c>
-      <c r="K15" s="29">
-        <v>0</v>
-      </c>
-      <c r="L15" s="29">
-        <v>0</v>
-      </c>
-      <c r="M15" s="23">
-        <v>0</v>
-      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="23"/>
       <c r="AC15" s="26">
         <v>2</v>
       </c>
@@ -2630,33 +2614,15 @@
       <c r="D16" s="1">
         <v>0.125</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29">
-        <v>0</v>
-      </c>
-      <c r="K16" s="29">
-        <v>0</v>
-      </c>
-      <c r="L16" s="29">
-        <v>0</v>
-      </c>
-      <c r="M16" s="23">
-        <v>0</v>
-      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="23"/>
       <c r="AC16" s="26">
         <v>3</v>
       </c>
@@ -2679,33 +2645,15 @@
       <c r="D17" s="1">
         <v>0.16666666666666599</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29">
-        <v>0</v>
-      </c>
-      <c r="K17" s="29">
-        <v>0</v>
-      </c>
-      <c r="L17" s="29">
-        <v>0</v>
-      </c>
-      <c r="M17" s="23">
-        <v>0</v>
-      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="23"/>
       <c r="AC17" s="26">
         <v>4</v>
       </c>
@@ -2728,33 +2676,15 @@
       <c r="D18" s="1">
         <v>0.20833333333333301</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
-        <v>0</v>
-      </c>
-      <c r="K18" s="29">
-        <v>0</v>
-      </c>
-      <c r="L18" s="29">
-        <v>0</v>
-      </c>
-      <c r="M18" s="23">
-        <v>0</v>
-      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="23"/>
       <c r="AC18" s="26">
         <v>5</v>
       </c>
@@ -2777,33 +2707,15 @@
       <c r="D19" s="1">
         <v>0.25</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29">
-        <v>0</v>
-      </c>
-      <c r="K19" s="29">
-        <v>0</v>
-      </c>
-      <c r="L19" s="29">
-        <v>0</v>
-      </c>
-      <c r="M19" s="23">
-        <v>0</v>
-      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="23"/>
       <c r="AC19" s="26">
         <v>6</v>
       </c>
@@ -2826,33 +2738,15 @@
       <c r="D20" s="1">
         <v>0.29166666666666602</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29">
-        <v>0</v>
-      </c>
-      <c r="K20" s="29">
-        <v>0</v>
-      </c>
-      <c r="L20" s="29">
-        <v>0</v>
-      </c>
-      <c r="M20" s="23">
-        <v>0</v>
-      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="23"/>
       <c r="AC20" s="26">
         <v>7</v>
       </c>
@@ -2875,33 +2769,15 @@
       <c r="D21" s="1">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29">
-        <v>0</v>
-      </c>
-      <c r="K21" s="29">
-        <v>0</v>
-      </c>
-      <c r="L21" s="29">
-        <v>0</v>
-      </c>
-      <c r="M21" s="23">
-        <v>0</v>
-      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="5" t="str">
@@ -2918,33 +2794,15 @@
       <c r="D22" s="1">
         <v>0.375</v>
       </c>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5">
-        <v>3</v>
-      </c>
-      <c r="G22" s="5">
-        <v>3</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29">
-        <v>81.333333333333329</v>
-      </c>
-      <c r="K22" s="29">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L22" s="29">
-        <v>0</v>
-      </c>
-      <c r="M22" s="23">
-        <v>0</v>
-      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="5" t="str">
@@ -2961,33 +2819,15 @@
       <c r="D23" s="1">
         <v>0.41666666666666602</v>
       </c>
-      <c r="E23" s="5">
-        <v>4</v>
-      </c>
-      <c r="F23" s="5">
-        <v>4</v>
-      </c>
-      <c r="G23" s="5">
-        <v>4</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29">
-        <v>71.75</v>
-      </c>
-      <c r="K23" s="29">
-        <v>4.25</v>
-      </c>
-      <c r="L23" s="29">
-        <v>0</v>
-      </c>
-      <c r="M23" s="23">
-        <v>0</v>
-      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="5" t="str">
@@ -3004,33 +2844,15 @@
       <c r="D24" s="1">
         <v>0.45833333333333298</v>
       </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>1</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29">
-        <v>70</v>
-      </c>
-      <c r="K24" s="29">
-        <v>5</v>
-      </c>
-      <c r="L24" s="29">
-        <v>0</v>
-      </c>
-      <c r="M24" s="23">
-        <v>0</v>
-      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="5" t="str">
@@ -3047,33 +2869,15 @@
       <c r="D25" s="1">
         <v>0.5</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29">
-        <v>0</v>
-      </c>
-      <c r="K25" s="29">
-        <v>0</v>
-      </c>
-      <c r="L25" s="29">
-        <v>0</v>
-      </c>
-      <c r="M25" s="23">
-        <v>0</v>
-      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="5" t="str">
@@ -3090,33 +2894,15 @@
       <c r="D26" s="1">
         <v>0.54166666666666596</v>
       </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29">
-        <v>0</v>
-      </c>
-      <c r="K26" s="29">
-        <v>0</v>
-      </c>
-      <c r="L26" s="29">
-        <v>0</v>
-      </c>
-      <c r="M26" s="23">
-        <v>0</v>
-      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="5" t="str">
@@ -3133,33 +2919,15 @@
       <c r="D27" s="1">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29">
-        <v>0</v>
-      </c>
-      <c r="K27" s="29">
-        <v>0</v>
-      </c>
-      <c r="L27" s="29">
-        <v>0</v>
-      </c>
-      <c r="M27" s="23">
-        <v>0</v>
-      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="5" t="str">
@@ -3176,33 +2944,15 @@
       <c r="D28" s="1">
         <v>0.625</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="29">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29">
-        <v>0</v>
-      </c>
-      <c r="L28" s="29">
-        <v>0</v>
-      </c>
-      <c r="M28" s="23">
-        <v>0</v>
-      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="5" t="str">
@@ -3219,33 +2969,15 @@
       <c r="D29" s="1">
         <v>0.66666666666666596</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0</v>
-      </c>
-      <c r="J29" s="29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="29">
-        <v>0</v>
-      </c>
-      <c r="M29" s="23">
-        <v>0</v>
-      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="5" t="str">
@@ -3262,33 +2994,15 @@
       <c r="D30" s="1">
         <v>0.70833333333333304</v>
       </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="29">
-        <v>0</v>
-      </c>
-      <c r="K30" s="29">
-        <v>0</v>
-      </c>
-      <c r="L30" s="29">
-        <v>0</v>
-      </c>
-      <c r="M30" s="23">
-        <v>0</v>
-      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="5" t="str">
@@ -3305,33 +3019,15 @@
       <c r="D31" s="1">
         <v>0.75</v>
       </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="29">
-        <v>0</v>
-      </c>
-      <c r="K31" s="29">
-        <v>0</v>
-      </c>
-      <c r="L31" s="29">
-        <v>0</v>
-      </c>
-      <c r="M31" s="23">
-        <v>0</v>
-      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="5" t="str">
@@ -3348,33 +3044,15 @@
       <c r="D32" s="1">
         <v>0.79166666666666596</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="29">
-        <v>0</v>
-      </c>
-      <c r="K32" s="29">
-        <v>0</v>
-      </c>
-      <c r="L32" s="29">
-        <v>0</v>
-      </c>
-      <c r="M32" s="23">
-        <v>0</v>
-      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="str">
@@ -3391,33 +3069,15 @@
       <c r="D33" s="1">
         <v>0.83333333333333304</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="29">
-        <v>0</v>
-      </c>
-      <c r="K33" s="29">
-        <v>0</v>
-      </c>
-      <c r="L33" s="29">
-        <v>0</v>
-      </c>
-      <c r="M33" s="23">
-        <v>0</v>
-      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="5" t="str">
@@ -3434,33 +3094,15 @@
       <c r="D34" s="1">
         <v>0.875</v>
       </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="29">
-        <v>0</v>
-      </c>
-      <c r="K34" s="29">
-        <v>0</v>
-      </c>
-      <c r="L34" s="29">
-        <v>0</v>
-      </c>
-      <c r="M34" s="23">
-        <v>0</v>
-      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5" t="str">
@@ -3477,33 +3119,15 @@
       <c r="D35" s="1">
         <v>0.91666666666666596</v>
       </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-      <c r="J35" s="29">
-        <v>0</v>
-      </c>
-      <c r="K35" s="29">
-        <v>0</v>
-      </c>
-      <c r="L35" s="29">
-        <v>0</v>
-      </c>
-      <c r="M35" s="23">
-        <v>0</v>
-      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="5" t="str">
@@ -3520,33 +3144,15 @@
       <c r="D36" s="1">
         <v>0.95833333333333304</v>
       </c>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="29">
-        <v>0</v>
-      </c>
-      <c r="K36" s="29">
-        <v>0</v>
-      </c>
-      <c r="L36" s="29">
-        <v>0</v>
-      </c>
-      <c r="M36" s="23">
-        <v>0</v>
-      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="5" t="str">
@@ -3563,33 +3169,15 @@
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="29">
-        <v>0</v>
-      </c>
-      <c r="K37" s="29">
-        <v>0</v>
-      </c>
-      <c r="L37" s="29">
-        <v>0</v>
-      </c>
-      <c r="M37" s="23">
-        <v>0</v>
-      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
